--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>821.7171658950434</v>
+        <v>906.9157779901984</v>
       </c>
       <c r="AB2" t="n">
-        <v>1124.309677980449</v>
+        <v>1240.882177746529</v>
       </c>
       <c r="AC2" t="n">
-        <v>1017.007140292537</v>
+        <v>1122.454124291475</v>
       </c>
       <c r="AD2" t="n">
-        <v>821717.1658950434</v>
+        <v>906915.7779901985</v>
       </c>
       <c r="AE2" t="n">
-        <v>1124309.677980449</v>
+        <v>1240882.177746529</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.137705967097764e-06</v>
+        <v>2.10505390696934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.35648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>1017007.140292537</v>
+        <v>1122454.124291475</v>
       </c>
     </row>
     <row r="3">
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>484.0461504727169</v>
+        <v>544.8535613405156</v>
       </c>
       <c r="AB3" t="n">
-        <v>662.2932976857983</v>
+        <v>745.4926798687573</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.0849548891464</v>
+        <v>674.3439048076298</v>
       </c>
       <c r="AD3" t="n">
-        <v>484046.1504727169</v>
+        <v>544853.5613405156</v>
       </c>
       <c r="AE3" t="n">
-        <v>662293.2976857983</v>
+        <v>745492.6798687573</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.599972870222656e-06</v>
+        <v>2.960368705895811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.499421296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>599084.9548891464</v>
+        <v>674343.9048076298</v>
       </c>
     </row>
     <row r="4">
@@ -2464,28 +2464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.8976513895273</v>
+        <v>450.7653946988116</v>
       </c>
       <c r="AB4" t="n">
-        <v>549.8940971041774</v>
+        <v>616.7570993926198</v>
       </c>
       <c r="AC4" t="n">
-        <v>497.4129762577665</v>
+        <v>557.894667450613</v>
       </c>
       <c r="AD4" t="n">
-        <v>401897.6513895273</v>
+        <v>450765.3946988116</v>
       </c>
       <c r="AE4" t="n">
-        <v>549894.0971041773</v>
+        <v>616757.0993926198</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.782526807425805e-06</v>
+        <v>3.298141284976521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.524305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>497412.9762577665</v>
+        <v>557894.667450613</v>
       </c>
     </row>
     <row r="5">
@@ -2570,28 +2570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>363.2231231488132</v>
+        <v>411.9202742575054</v>
       </c>
       <c r="AB5" t="n">
-        <v>496.9779013654642</v>
+        <v>563.6074918790595</v>
       </c>
       <c r="AC5" t="n">
-        <v>449.5470279720088</v>
+        <v>509.8175838822042</v>
       </c>
       <c r="AD5" t="n">
-        <v>363223.1231488132</v>
+        <v>411920.2742575054</v>
       </c>
       <c r="AE5" t="n">
-        <v>496977.9013654641</v>
+        <v>563607.4918790595</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.880736204022436e-06</v>
+        <v>3.479854381317409e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.078703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>449547.0279720088</v>
+        <v>509817.5838822043</v>
       </c>
     </row>
     <row r="6">
@@ -2676,28 +2676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>355.6469347140181</v>
+        <v>404.3440858227103</v>
       </c>
       <c r="AB6" t="n">
-        <v>486.6118261111331</v>
+        <v>553.2414166247285</v>
       </c>
       <c r="AC6" t="n">
-        <v>440.1702763910731</v>
+        <v>500.4408323012685</v>
       </c>
       <c r="AD6" t="n">
-        <v>355646.9347140181</v>
+        <v>404344.0858227103</v>
       </c>
       <c r="AE6" t="n">
-        <v>486611.8261111331</v>
+        <v>553241.4166247285</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.898592457949096e-06</v>
+        <v>3.512893126106662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.003472222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>440170.2763910731</v>
+        <v>500440.8323012685</v>
       </c>
     </row>
   </sheetData>
@@ -2973,28 +2973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>612.3355427060474</v>
+        <v>682.9178155023508</v>
       </c>
       <c r="AB2" t="n">
-        <v>837.8245038679829</v>
+        <v>934.398283377995</v>
       </c>
       <c r="AC2" t="n">
-        <v>757.8637091128983</v>
+        <v>845.2206226486257</v>
       </c>
       <c r="AD2" t="n">
-        <v>612335.5427060474</v>
+        <v>682917.8155023508</v>
       </c>
       <c r="AE2" t="n">
-        <v>837824.5038679829</v>
+        <v>934398.283377995</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.348459275028224e-06</v>
+        <v>2.570371489158161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.65798611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>757863.7091128983</v>
+        <v>845220.6226486258</v>
       </c>
     </row>
     <row r="3">
@@ -3079,28 +3079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.26591446586</v>
+        <v>445.9991342748745</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.8743091385404</v>
+        <v>610.2356916080194</v>
       </c>
       <c r="AC3" t="n">
-        <v>479.303848757621</v>
+        <v>551.9956536721216</v>
       </c>
       <c r="AD3" t="n">
-        <v>387265.9144658599</v>
+        <v>445999.1342748745</v>
       </c>
       <c r="AE3" t="n">
-        <v>529874.3091385404</v>
+        <v>610235.6916080194</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.783149954299007e-06</v>
+        <v>3.398959010703464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.816550925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>479303.848757621</v>
+        <v>551995.6536721217</v>
       </c>
     </row>
     <row r="4">
@@ -3185,28 +3185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.1529438419003</v>
+        <v>380.1225410267486</v>
       </c>
       <c r="AB4" t="n">
-        <v>455.8345554350618</v>
+        <v>520.1004304557538</v>
       </c>
       <c r="AC4" t="n">
-        <v>412.3303452321554</v>
+        <v>470.4627753385947</v>
       </c>
       <c r="AD4" t="n">
-        <v>333152.9438419003</v>
+        <v>380122.5410267487</v>
       </c>
       <c r="AE4" t="n">
-        <v>455834.5554350617</v>
+        <v>520100.4304557538</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.942389846930261e-06</v>
+        <v>3.702494821933221e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.093171296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>412330.3452321554</v>
+        <v>470462.7753385947</v>
       </c>
     </row>
     <row r="5">
@@ -3291,28 +3291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>330.3937376062876</v>
+        <v>377.363334791136</v>
       </c>
       <c r="AB5" t="n">
-        <v>452.0592877359085</v>
+        <v>516.3251627566005</v>
       </c>
       <c r="AC5" t="n">
-        <v>408.9153837835878</v>
+        <v>467.0478138900272</v>
       </c>
       <c r="AD5" t="n">
-        <v>330393.7376062876</v>
+        <v>377363.334791136</v>
       </c>
       <c r="AE5" t="n">
-        <v>452059.2877359085</v>
+        <v>516325.1627566005</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.95032196031278e-06</v>
+        <v>3.717614654222387e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.061342592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>408915.3837835878</v>
+        <v>467047.8138900272</v>
       </c>
     </row>
   </sheetData>
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.7396397504572</v>
+        <v>326.97151135184</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.9108957640493</v>
+        <v>447.3768467966065</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.0344874665835</v>
+        <v>404.6798284356856</v>
       </c>
       <c r="AD2" t="n">
-        <v>274739.6397504573</v>
+        <v>326971.51135184</v>
       </c>
       <c r="AE2" t="n">
-        <v>375910.8957640493</v>
+        <v>447376.8467966064</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.023503071791261e-06</v>
+        <v>4.309531986223997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.668981481481483</v>
       </c>
       <c r="AH2" t="n">
-        <v>340034.4874665835</v>
+        <v>404679.8284356856</v>
       </c>
     </row>
     <row r="3">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.4409462396858</v>
+        <v>325.6728178410686</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.1339660082978</v>
+        <v>445.5999170408549</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.4271453927843</v>
+        <v>403.0724863618864</v>
       </c>
       <c r="AD3" t="n">
-        <v>273440.9462396858</v>
+        <v>325672.8178410686</v>
       </c>
       <c r="AE3" t="n">
-        <v>374133.9660082978</v>
+        <v>445599.9170408549</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03684032015228e-06</v>
+        <v>4.337936834835935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.611111111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>338427.1453927843</v>
+        <v>403072.4863618864</v>
       </c>
     </row>
   </sheetData>
@@ -3991,28 +3991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.8737690352947</v>
+        <v>428.7327492662965</v>
       </c>
       <c r="AB2" t="n">
-        <v>511.5505849406827</v>
+        <v>586.6110619001372</v>
       </c>
       <c r="AC2" t="n">
-        <v>462.7289150796984</v>
+        <v>530.6257254661839</v>
       </c>
       <c r="AD2" t="n">
-        <v>373873.7690352948</v>
+        <v>428732.7492662965</v>
       </c>
       <c r="AE2" t="n">
-        <v>511550.5849406826</v>
+        <v>586611.0619001372</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.764266290409002e-06</v>
+        <v>3.582070532247517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.51099537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>462728.9150796984</v>
+        <v>530625.7254661839</v>
       </c>
     </row>
     <row r="3">
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.6070845886699</v>
+        <v>335.4090174274507</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.9896779308396</v>
+        <v>458.9214148457539</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.9106630546495</v>
+        <v>415.1225991131255</v>
       </c>
       <c r="AD3" t="n">
-        <v>291607.0845886699</v>
+        <v>335409.0174274507</v>
       </c>
       <c r="AE3" t="n">
-        <v>398989.6779308396</v>
+        <v>458921.4148457539</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.025600409560316e-06</v>
+        <v>4.112669145604103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.284143518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>360910.6630546495</v>
+        <v>415122.5991131255</v>
       </c>
     </row>
   </sheetData>
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.4381550434566</v>
+        <v>309.6241977399816</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.6571705029327</v>
+        <v>423.6414870033981</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.4730475637205</v>
+        <v>383.2097380683545</v>
       </c>
       <c r="AD2" t="n">
-        <v>269438.1550434566</v>
+        <v>309624.1977399816</v>
       </c>
       <c r="AE2" t="n">
-        <v>368657.1705029327</v>
+        <v>423641.4870033981</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.010030035959652e-06</v>
+        <v>4.475944282892786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>333473.0475637205</v>
+        <v>383209.7380683544</v>
       </c>
     </row>
   </sheetData>
@@ -4691,28 +4691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>666.166901983863</v>
+        <v>737.3450326033934</v>
       </c>
       <c r="AB2" t="n">
-        <v>911.4789445038513</v>
+        <v>1008.868002974995</v>
       </c>
       <c r="AC2" t="n">
-        <v>824.4886733091362</v>
+        <v>912.5830567261957</v>
       </c>
       <c r="AD2" t="n">
-        <v>666166.901983863</v>
+        <v>737345.0326033934</v>
       </c>
       <c r="AE2" t="n">
-        <v>911478.9445038512</v>
+        <v>1008868.002974994</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.292573018284591e-06</v>
+        <v>2.443950102014656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.05150462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>824488.6733091362</v>
+        <v>912583.0567261956</v>
       </c>
     </row>
     <row r="3">
@@ -4797,28 +4797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>408.2800781268296</v>
+        <v>467.5808889102173</v>
       </c>
       <c r="AB3" t="n">
-        <v>558.6268149389499</v>
+        <v>639.7648004199127</v>
       </c>
       <c r="AC3" t="n">
-        <v>505.3122557588347</v>
+        <v>578.7065457833723</v>
       </c>
       <c r="AD3" t="n">
-        <v>408280.0781268296</v>
+        <v>467580.8889102173</v>
       </c>
       <c r="AE3" t="n">
-        <v>558626.8149389499</v>
+        <v>639764.8004199127</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.733481105373045e-06</v>
+        <v>3.277603094283494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.987268518518517</v>
       </c>
       <c r="AH3" t="n">
-        <v>505312.2557588347</v>
+        <v>578706.5457833724</v>
       </c>
     </row>
     <row r="4">
@@ -4903,28 +4903,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>349.5821216142845</v>
+        <v>397.0057915786313</v>
       </c>
       <c r="AB4" t="n">
-        <v>478.313681267407</v>
+        <v>543.2008386972861</v>
       </c>
       <c r="AC4" t="n">
-        <v>432.6640948447128</v>
+        <v>491.3585130391817</v>
       </c>
       <c r="AD4" t="n">
-        <v>349582.1216142845</v>
+        <v>397005.7915786313</v>
       </c>
       <c r="AE4" t="n">
-        <v>478313.681267407</v>
+        <v>543200.8386972861</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.903674103698433e-06</v>
+        <v>3.599397832171124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.182870370370372</v>
       </c>
       <c r="AH4" t="n">
-        <v>432664.0948447129</v>
+        <v>491358.5130391817</v>
       </c>
     </row>
     <row r="5">
@@ -5009,28 +5009,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>336.8721654803817</v>
+        <v>384.2958354447285</v>
       </c>
       <c r="AB5" t="n">
-        <v>460.9233585613105</v>
+        <v>525.8105159911896</v>
       </c>
       <c r="AC5" t="n">
-        <v>416.933480130215</v>
+        <v>475.6278983246839</v>
       </c>
       <c r="AD5" t="n">
-        <v>336872.1654803818</v>
+        <v>384295.8354447286</v>
       </c>
       <c r="AE5" t="n">
-        <v>460923.3585613105</v>
+        <v>525810.5159911896</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.936894312482604e-06</v>
+        <v>3.6622093960043e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.043981481481483</v>
       </c>
       <c r="AH5" t="n">
-        <v>416933.480130215</v>
+        <v>475627.8983246839</v>
       </c>
     </row>
   </sheetData>
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.7420032718069</v>
+        <v>312.5693559952085</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.863444352481</v>
+        <v>427.6711824594117</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.4231436985045</v>
+        <v>386.8548450457591</v>
       </c>
       <c r="AD2" t="n">
-        <v>263742.0032718069</v>
+        <v>312569.3559952085</v>
       </c>
       <c r="AE2" t="n">
-        <v>360863.444352481</v>
+        <v>427671.1824594117</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.966690071321131e-06</v>
+        <v>4.508768261495085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>326423.1436985045</v>
+        <v>386854.8450457591</v>
       </c>
     </row>
   </sheetData>
@@ -5603,28 +5603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>485.6579083247938</v>
+        <v>542.7197025126503</v>
       </c>
       <c r="AB2" t="n">
-        <v>664.498575884748</v>
+        <v>742.5730400812644</v>
       </c>
       <c r="AC2" t="n">
-        <v>601.0797644319156</v>
+        <v>671.7029113437154</v>
       </c>
       <c r="AD2" t="n">
-        <v>485657.9083247937</v>
+        <v>542719.7025126503</v>
       </c>
       <c r="AE2" t="n">
-        <v>664498.575884748</v>
+        <v>742573.0400812643</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.538115816420865e-06</v>
+        <v>3.01468574352555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.52951388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>601079.7644319156</v>
+        <v>671702.9113437154</v>
       </c>
     </row>
     <row r="3">
@@ -5709,28 +5709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.7779708418178</v>
+        <v>371.2738821624252</v>
       </c>
       <c r="AB3" t="n">
-        <v>445.7437920155031</v>
+        <v>507.9933050223087</v>
       </c>
       <c r="AC3" t="n">
-        <v>403.2026301108838</v>
+        <v>459.5111369640603</v>
       </c>
       <c r="AD3" t="n">
-        <v>325777.9708418178</v>
+        <v>371273.8821624252</v>
       </c>
       <c r="AE3" t="n">
-        <v>445743.792015503</v>
+        <v>507993.3050223087</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.940641139802569e-06</v>
+        <v>3.803629814480213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.344907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>403202.6301108839</v>
+        <v>459511.1369640603</v>
       </c>
     </row>
     <row r="4">
@@ -5815,28 +5815,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>310.8724740943005</v>
+        <v>356.3683854149079</v>
       </c>
       <c r="AB4" t="n">
-        <v>425.3494337814433</v>
+        <v>487.5989467882491</v>
       </c>
       <c r="AC4" t="n">
-        <v>384.7546808030214</v>
+        <v>441.0631876561978</v>
       </c>
       <c r="AD4" t="n">
-        <v>310872.4740943005</v>
+        <v>356368.3854149079</v>
       </c>
       <c r="AE4" t="n">
-        <v>425349.4337814433</v>
+        <v>487598.9467882491</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.991747469971877e-06</v>
+        <v>3.903797515325938e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.130787037037038</v>
       </c>
       <c r="AH4" t="n">
-        <v>384754.6808030214</v>
+        <v>441063.1876561978</v>
       </c>
     </row>
   </sheetData>
@@ -6112,28 +6112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.7629993705876</v>
+        <v>642.4676707660228</v>
       </c>
       <c r="AB2" t="n">
-        <v>783.6796042590083</v>
+        <v>879.0526108153115</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.8863227297604</v>
+        <v>795.1570633971854</v>
       </c>
       <c r="AD2" t="n">
-        <v>572762.9993705876</v>
+        <v>642467.6707660229</v>
       </c>
       <c r="AE2" t="n">
-        <v>783679.6042590083</v>
+        <v>879052.6108153114</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.407173246952378e-06</v>
+        <v>2.705576337750814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.27893518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>708886.3227297604</v>
+        <v>795157.0633971854</v>
       </c>
     </row>
     <row r="3">
@@ -6218,28 +6218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>367.8785721096497</v>
+        <v>426.022617585101</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.3476920175935</v>
+        <v>582.9029401713542</v>
       </c>
       <c r="AC3" t="n">
-        <v>455.3088947443563</v>
+        <v>527.2715016708141</v>
       </c>
       <c r="AD3" t="n">
-        <v>367878.5721096497</v>
+        <v>426022.617585101</v>
       </c>
       <c r="AE3" t="n">
-        <v>503347.6920175935</v>
+        <v>582902.9401713542</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.829758501181948e-06</v>
+        <v>3.518082308143689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>455308.8947443563</v>
+        <v>527271.5016708141</v>
       </c>
     </row>
     <row r="4">
@@ -6324,28 +6324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>324.603209509445</v>
+        <v>371.1014672274428</v>
       </c>
       <c r="AB4" t="n">
-        <v>444.1364317337383</v>
+        <v>507.7573993018557</v>
       </c>
       <c r="AC4" t="n">
-        <v>401.7486740384665</v>
+        <v>459.2977457544716</v>
       </c>
       <c r="AD4" t="n">
-        <v>324603.2095094451</v>
+        <v>371101.4672274428</v>
       </c>
       <c r="AE4" t="n">
-        <v>444136.4317337383</v>
+        <v>507757.3993018557</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.961442757561597e-06</v>
+        <v>3.771272033635356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>401748.6740384665</v>
+        <v>459297.7457544716</v>
       </c>
     </row>
     <row r="5">
@@ -6430,28 +6430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>324.2837630992793</v>
+        <v>370.782020817277</v>
       </c>
       <c r="AB5" t="n">
-        <v>443.6993510623685</v>
+        <v>507.3203186304859</v>
       </c>
       <c r="AC5" t="n">
-        <v>401.3533077329257</v>
+        <v>458.9023794489307</v>
       </c>
       <c r="AD5" t="n">
-        <v>324283.7630992793</v>
+        <v>370782.020817277</v>
       </c>
       <c r="AE5" t="n">
-        <v>443699.3510623685</v>
+        <v>507320.3186304859</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.96665308840544e-06</v>
+        <v>3.781289952803082e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.070023148148149</v>
       </c>
       <c r="AH5" t="n">
-        <v>401353.3077329257</v>
+        <v>458902.3794489307</v>
       </c>
     </row>
   </sheetData>
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>760.0988123636965</v>
+        <v>844.6634595847117</v>
       </c>
       <c r="AB2" t="n">
-        <v>1040.000728268958</v>
+        <v>1155.705809325684</v>
       </c>
       <c r="AC2" t="n">
-        <v>940.7445184131573</v>
+        <v>1045.406868926931</v>
       </c>
       <c r="AD2" t="n">
-        <v>760098.8123636965</v>
+        <v>844663.4595847117</v>
       </c>
       <c r="AE2" t="n">
-        <v>1040000.728268958</v>
+        <v>1155705.809325684</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.185657488633945e-06</v>
+        <v>2.208789973444159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91956018518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>940744.5184131573</v>
+        <v>1045406.868926931</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>462.963951332422</v>
+        <v>523.2576363286774</v>
       </c>
       <c r="AB3" t="n">
-        <v>633.4477027410625</v>
+        <v>715.94418252259</v>
       </c>
       <c r="AC3" t="n">
-        <v>572.9923430408894</v>
+        <v>647.6154745766046</v>
       </c>
       <c r="AD3" t="n">
-        <v>462963.951332422</v>
+        <v>523257.6363286775</v>
       </c>
       <c r="AE3" t="n">
-        <v>633447.7027410625</v>
+        <v>715944.18252259</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.641826197816367e-06</v>
+        <v>3.058597679885571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.328703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>572992.3430408894</v>
+        <v>647615.4745766046</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.5479541489358</v>
+        <v>433.8341245603934</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.5237200418646</v>
+        <v>593.590988634315</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.1775965852594</v>
+        <v>536.9394977892402</v>
       </c>
       <c r="AD4" t="n">
-        <v>385547.9541489358</v>
+        <v>433834.1245603934</v>
       </c>
       <c r="AE4" t="n">
-        <v>527523.7200418647</v>
+        <v>593590.988634315</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.816787040783514e-06</v>
+        <v>3.384536460179045e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.431712962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>477177.5965852594</v>
+        <v>536939.4977892402</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>350.7503125941994</v>
+        <v>399.0364830056571</v>
       </c>
       <c r="AB5" t="n">
-        <v>479.9120517030753</v>
+        <v>545.9793202955257</v>
       </c>
       <c r="AC5" t="n">
-        <v>434.109919049328</v>
+        <v>493.8718202533087</v>
       </c>
       <c r="AD5" t="n">
-        <v>350750.3125941994</v>
+        <v>399036.4830056571</v>
       </c>
       <c r="AE5" t="n">
-        <v>479912.0517030753</v>
+        <v>545979.3202955257</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.907311410367121e-06</v>
+        <v>3.553176494763566e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.032407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>434109.919049328</v>
+        <v>493871.8202533087</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>349.142756890114</v>
+        <v>397.4289273015717</v>
       </c>
       <c r="AB6" t="n">
-        <v>477.7125230683935</v>
+        <v>543.7797916608437</v>
       </c>
       <c r="AC6" t="n">
-        <v>432.1203103404823</v>
+        <v>491.882211544463</v>
       </c>
       <c r="AD6" t="n">
-        <v>349142.756890114</v>
+        <v>397428.9273015716</v>
       </c>
       <c r="AE6" t="n">
-        <v>477712.5230683935</v>
+        <v>543779.7916608436</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.913505183022842e-06</v>
+        <v>3.564715023445665e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.006365740740742</v>
       </c>
       <c r="AH6" t="n">
-        <v>432120.3103404823</v>
+        <v>491882.2115444629</v>
       </c>
     </row>
   </sheetData>
@@ -7448,28 +7448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.5643462116577</v>
+        <v>461.1667636572029</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.9110307229752</v>
+        <v>630.9887112775033</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.9511007732967</v>
+        <v>570.768034271396</v>
       </c>
       <c r="AD2" t="n">
-        <v>405564.3462116577</v>
+        <v>461166.7636572029</v>
       </c>
       <c r="AE2" t="n">
-        <v>554911.0307229751</v>
+        <v>630988.7112775033</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.685601976295474e-06</v>
+        <v>3.378784703006976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.832175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>501951.1007732967</v>
+        <v>570768.034271396</v>
       </c>
     </row>
     <row r="3">
@@ -7554,28 +7554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.040309185871</v>
+        <v>342.4369917962866</v>
       </c>
       <c r="AB3" t="n">
-        <v>407.7918996385687</v>
+        <v>468.5373994295419</v>
       </c>
       <c r="AC3" t="n">
-        <v>368.8728130765887</v>
+        <v>423.8208476243559</v>
       </c>
       <c r="AD3" t="n">
-        <v>298040.309185871</v>
+        <v>342436.9917962867</v>
       </c>
       <c r="AE3" t="n">
-        <v>407791.8996385687</v>
+        <v>468537.399429542</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.013307008517637e-06</v>
+        <v>4.035668573304811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.232060185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>368872.8130765887</v>
+        <v>423820.8476243559</v>
       </c>
     </row>
     <row r="4">
@@ -7660,28 +7660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.3819433191708</v>
+        <v>343.7786259295865</v>
       </c>
       <c r="AB4" t="n">
-        <v>409.6275826484701</v>
+        <v>470.3730824394434</v>
       </c>
       <c r="AC4" t="n">
-        <v>370.5333010764224</v>
+        <v>425.4813356241896</v>
       </c>
       <c r="AD4" t="n">
-        <v>299381.9433191709</v>
+        <v>343778.6259295865</v>
       </c>
       <c r="AE4" t="n">
-        <v>409627.5826484701</v>
+        <v>470373.0824394434</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.014853327264579e-06</v>
+        <v>4.038768165142987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.223379629629632</v>
       </c>
       <c r="AH4" t="n">
-        <v>370533.3010764224</v>
+        <v>425481.3356241896</v>
       </c>
     </row>
   </sheetData>
@@ -7957,28 +7957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.9464126296471</v>
+        <v>352.0873168094357</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.0316703448057</v>
+        <v>481.7413998548246</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.9942618066516</v>
+        <v>435.7646767809807</v>
       </c>
       <c r="AD2" t="n">
-        <v>298946.4126296471</v>
+        <v>352087.3168094357</v>
       </c>
       <c r="AE2" t="n">
-        <v>409031.6703448057</v>
+        <v>481741.3998548246</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.950739441109587e-06</v>
+        <v>4.081068905982389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.84837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>369994.2618066516</v>
+        <v>435764.6767809807</v>
       </c>
     </row>
     <row r="3">
@@ -8063,28 +8063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>279.6257948435828</v>
+        <v>322.1215395250504</v>
       </c>
       <c r="AB3" t="n">
-        <v>382.5963487244128</v>
+        <v>440.7409013775369</v>
       </c>
       <c r="AC3" t="n">
-        <v>346.0818901795021</v>
+        <v>398.6772083338042</v>
       </c>
       <c r="AD3" t="n">
-        <v>279625.7948435828</v>
+        <v>322121.5395250504</v>
       </c>
       <c r="AE3" t="n">
-        <v>382596.3487244128</v>
+        <v>440740.9013775369</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03581098589757e-06</v>
+        <v>4.259043897876052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.47800925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>346081.8901795021</v>
+        <v>398677.2083338042</v>
       </c>
     </row>
   </sheetData>
@@ -13869,28 +13869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.8500012938768</v>
+        <v>317.0915864537751</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.7477002445862</v>
+        <v>433.8586976795498</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.0321302563457</v>
+        <v>392.4518324975194</v>
       </c>
       <c r="AD2" t="n">
-        <v>265850.0012938768</v>
+        <v>317091.5864537751</v>
       </c>
       <c r="AE2" t="n">
-        <v>363747.7002445862</v>
+        <v>433858.6976795498</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.027207073057314e-06</v>
+        <v>4.406855792460206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.807870370370372</v>
       </c>
       <c r="AH2" t="n">
-        <v>329032.1302563457</v>
+        <v>392451.8324975194</v>
       </c>
     </row>
     <row r="3">
@@ -13975,28 +13975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.9511586285071</v>
+        <v>318.1927437884054</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.2543522894604</v>
+        <v>435.365349724424</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.3949895446567</v>
+        <v>393.8146917858303</v>
       </c>
       <c r="AD3" t="n">
-        <v>266951.1586285071</v>
+        <v>318192.7437884054</v>
       </c>
       <c r="AE3" t="n">
-        <v>365254.3522894604</v>
+        <v>435365.3497244241</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.030477856791128e-06</v>
+        <v>4.413966004551909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.793402777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>330394.9895446567</v>
+        <v>393814.6917858303</v>
       </c>
     </row>
   </sheetData>
@@ -14272,28 +14272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.034234506734</v>
+        <v>316.5108698659163</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.1045086048723</v>
+        <v>433.0641356246336</v>
       </c>
       <c r="AC2" t="n">
-        <v>332.9731309415452</v>
+        <v>391.7331023299496</v>
       </c>
       <c r="AD2" t="n">
-        <v>269034.234506734</v>
+        <v>316510.8698659163</v>
       </c>
       <c r="AE2" t="n">
-        <v>368104.5086048723</v>
+        <v>433064.1356246336</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.874368061146307e-06</v>
+        <v>4.458234973002942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.22569444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>332973.1309415451</v>
+        <v>391733.1023299496</v>
       </c>
     </row>
   </sheetData>
@@ -14569,28 +14569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>521.21470113168</v>
+        <v>590.26889808403</v>
       </c>
       <c r="AB2" t="n">
-        <v>713.1489484581184</v>
+        <v>807.6319471844847</v>
       </c>
       <c r="AC2" t="n">
-        <v>645.0870137281103</v>
+        <v>730.5526876637538</v>
       </c>
       <c r="AD2" t="n">
-        <v>521214.70113168</v>
+        <v>590268.8980840299</v>
       </c>
       <c r="AE2" t="n">
-        <v>713148.9484581184</v>
+        <v>807631.9471844847</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.473124222585961e-06</v>
+        <v>2.858712744859508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.87962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>645087.0137281102</v>
+        <v>730552.6876637537</v>
       </c>
     </row>
     <row r="3">
@@ -14675,28 +14675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.3872680219603</v>
+        <v>393.5656340811464</v>
       </c>
       <c r="AB3" t="n">
-        <v>475.3105857522826</v>
+        <v>538.4938634401898</v>
       </c>
       <c r="AC3" t="n">
-        <v>429.9476105506809</v>
+        <v>487.1007648943414</v>
       </c>
       <c r="AD3" t="n">
-        <v>347387.2680219603</v>
+        <v>393565.6340811463</v>
       </c>
       <c r="AE3" t="n">
-        <v>475310.5857522826</v>
+        <v>538493.8634401897</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.883033196306954e-06</v>
+        <v>3.654173161192529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.512731481481483</v>
       </c>
       <c r="AH3" t="n">
-        <v>429947.6105506809</v>
+        <v>487100.7648943414</v>
       </c>
     </row>
     <row r="4">
@@ -14781,28 +14781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>316.8672257067024</v>
+        <v>362.8749995652961</v>
       </c>
       <c r="AB4" t="n">
-        <v>433.5517174073073</v>
+        <v>496.5015833203674</v>
       </c>
       <c r="AC4" t="n">
-        <v>392.1741499916102</v>
+        <v>449.1161690526195</v>
       </c>
       <c r="AD4" t="n">
-        <v>316867.2257067023</v>
+        <v>362874.9995652961</v>
       </c>
       <c r="AE4" t="n">
-        <v>433551.7174073072</v>
+        <v>496501.5833203674</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.981023598268094e-06</v>
+        <v>3.844331198556463e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>392174.1499916102</v>
+        <v>449116.1690526195</v>
       </c>
     </row>
   </sheetData>
@@ -15078,28 +15078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>711.090868314523</v>
+        <v>782.9266011932492</v>
       </c>
       <c r="AB2" t="n">
-        <v>972.9458971429791</v>
+        <v>1071.234716036518</v>
       </c>
       <c r="AC2" t="n">
-        <v>880.0893062577956</v>
+        <v>968.997578225359</v>
       </c>
       <c r="AD2" t="n">
-        <v>711090.868314523</v>
+        <v>782926.6011932492</v>
       </c>
       <c r="AE2" t="n">
-        <v>972945.8971429791</v>
+        <v>1071234.716036518</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.238649444253941e-06</v>
+        <v>2.324192191955852e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.47106481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>880089.3062577955</v>
+        <v>968997.578225359</v>
       </c>
     </row>
     <row r="3">
@@ -15184,28 +15184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.4666476691971</v>
+        <v>490.4140599942461</v>
       </c>
       <c r="AB3" t="n">
-        <v>605.4023875918215</v>
+        <v>671.0061524254954</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.6236334076448</v>
+        <v>606.9662670010551</v>
       </c>
       <c r="AD3" t="n">
-        <v>442466.6476691971</v>
+        <v>490414.0599942461</v>
       </c>
       <c r="AE3" t="n">
-        <v>605402.3875918215</v>
+        <v>671006.1524254954</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.683986755756231e-06</v>
+        <v>3.159819662651291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.172453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>547623.6334076448</v>
+        <v>606966.2670010552</v>
       </c>
     </row>
     <row r="4">
@@ -15290,28 +15290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.3284860831998</v>
+        <v>415.1905575536773</v>
       </c>
       <c r="AB4" t="n">
-        <v>502.5950400481222</v>
+        <v>568.0820377595985</v>
       </c>
       <c r="AC4" t="n">
-        <v>454.6280748224976</v>
+        <v>513.8650853839691</v>
       </c>
       <c r="AD4" t="n">
-        <v>367328.4860831999</v>
+        <v>415190.5575536772</v>
       </c>
       <c r="AE4" t="n">
-        <v>502595.0400481222</v>
+        <v>568082.0377595985</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.859281941058103e-06</v>
+        <v>3.488742186175662e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.307291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>454628.0748224976</v>
+        <v>513865.0853839691</v>
       </c>
     </row>
     <row r="5">
@@ -15396,28 +15396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>342.2881558197254</v>
+        <v>390.1502272902027</v>
       </c>
       <c r="AB5" t="n">
-        <v>468.333755480231</v>
+        <v>533.8207531917075</v>
       </c>
       <c r="AC5" t="n">
-        <v>423.6366391677512</v>
+        <v>482.8736497292227</v>
       </c>
       <c r="AD5" t="n">
-        <v>342288.1558197254</v>
+        <v>390150.2272902027</v>
       </c>
       <c r="AE5" t="n">
-        <v>468333.755480231</v>
+        <v>533820.7531917074</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.925044324825432e-06</v>
+        <v>3.612138212053257e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.023726851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>423636.6391677512</v>
+        <v>482873.6497292228</v>
       </c>
     </row>
     <row r="6">
@@ -15502,28 +15502,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>343.4710104892794</v>
+        <v>391.3330819597568</v>
       </c>
       <c r="AB6" t="n">
-        <v>469.9521894229799</v>
+        <v>535.4391871344562</v>
       </c>
       <c r="AC6" t="n">
-        <v>425.1006120464904</v>
+        <v>484.337622607962</v>
       </c>
       <c r="AD6" t="n">
-        <v>343471.0104892794</v>
+        <v>391333.0819597568</v>
       </c>
       <c r="AE6" t="n">
-        <v>469952.18942298</v>
+        <v>535439.1871344562</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.924777432034169e-06</v>
+        <v>3.611637416493689e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.023726851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>425100.6120464904</v>
+        <v>484337.622607962</v>
       </c>
     </row>
   </sheetData>
@@ -15799,28 +15799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.3005370427859</v>
+        <v>332.2616948221863</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.4148284182284</v>
+        <v>454.6151092071573</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.2040097060481</v>
+        <v>411.2272812407386</v>
       </c>
       <c r="AD2" t="n">
-        <v>277300.5370427859</v>
+        <v>332261.6948221863</v>
       </c>
       <c r="AE2" t="n">
-        <v>379414.8284182284</v>
+        <v>454615.1092071573</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.673486428158022e-06</v>
+        <v>4.18526255672193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.86053240740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>343204.0097060481</v>
+        <v>411227.2812407386</v>
       </c>
     </row>
   </sheetData>
@@ -16096,28 +16096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>341.8252795773352</v>
+        <v>385.0811569832579</v>
       </c>
       <c r="AB2" t="n">
-        <v>467.7004277847342</v>
+        <v>526.8850275661466</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.0637553786314</v>
+        <v>476.5998600230134</v>
       </c>
       <c r="AD2" t="n">
-        <v>341825.2795773352</v>
+        <v>385081.1569832579</v>
       </c>
       <c r="AE2" t="n">
-        <v>467700.4277847342</v>
+        <v>526885.0275661466</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.852054256085256e-06</v>
+        <v>3.813904693095566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.184027777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>423063.7553786314</v>
+        <v>476599.8600230134</v>
       </c>
     </row>
     <row r="3">
@@ -16202,28 +16202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.125420621697</v>
+        <v>328.2959571730481</v>
       </c>
       <c r="AB3" t="n">
-        <v>390.1211793403943</v>
+        <v>449.1890119996091</v>
       </c>
       <c r="AC3" t="n">
-        <v>352.8885615226604</v>
+        <v>406.3190431351035</v>
       </c>
       <c r="AD3" t="n">
-        <v>285125.420621697</v>
+        <v>328295.9571730481</v>
       </c>
       <c r="AE3" t="n">
-        <v>390121.1793403943</v>
+        <v>449189.0119996091</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.034355559034736e-06</v>
+        <v>4.189314750653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.362268518518517</v>
       </c>
       <c r="AH3" t="n">
-        <v>352888.5615226604</v>
+        <v>406319.0431351035</v>
       </c>
     </row>
   </sheetData>
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>451.5026457930634</v>
+        <v>507.7239310909106</v>
       </c>
       <c r="AB2" t="n">
-        <v>617.7658388649978</v>
+        <v>694.6902817175684</v>
       </c>
       <c r="AC2" t="n">
-        <v>558.8071342435222</v>
+        <v>628.390016234377</v>
       </c>
       <c r="AD2" t="n">
-        <v>451502.6457930634</v>
+        <v>507723.9310909106</v>
       </c>
       <c r="AE2" t="n">
-        <v>617765.8388649978</v>
+        <v>694690.2817175684</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.607161390482184e-06</v>
+        <v>3.184082611894101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.19097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>558807.1342435222</v>
+        <v>628390.0162343769</v>
       </c>
     </row>
     <row r="3">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>308.966312728564</v>
+        <v>353.9262906976377</v>
       </c>
       <c r="AB3" t="n">
-        <v>422.7413397069383</v>
+        <v>484.2575650584648</v>
       </c>
       <c r="AC3" t="n">
-        <v>382.395499566504</v>
+        <v>438.0407027090453</v>
       </c>
       <c r="AD3" t="n">
-        <v>308966.312728564</v>
+        <v>353926.2906976377</v>
       </c>
       <c r="AE3" t="n">
-        <v>422741.3397069383</v>
+        <v>484257.5650584648</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.987174828612045e-06</v>
+        <v>3.936959197780946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.240740740740742</v>
       </c>
       <c r="AH3" t="n">
-        <v>382395.499566504</v>
+        <v>438040.7027090453</v>
       </c>
     </row>
     <row r="4">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.8333472123597</v>
+        <v>349.7933251814334</v>
       </c>
       <c r="AB4" t="n">
-        <v>417.0864339540973</v>
+        <v>478.6026593056238</v>
       </c>
       <c r="AC4" t="n">
-        <v>377.2802900820042</v>
+        <v>432.9254932245455</v>
       </c>
       <c r="AD4" t="n">
-        <v>304833.3472123597</v>
+        <v>349793.3251814333</v>
       </c>
       <c r="AE4" t="n">
-        <v>417086.4339540973</v>
+        <v>478602.6593056238</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.003249272524598e-06</v>
+        <v>3.96880563066624e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.174189814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>377280.2900820042</v>
+        <v>432925.4932245455</v>
       </c>
     </row>
   </sheetData>
